--- a/data/evaluated_control.xlsx
+++ b/data/evaluated_control.xlsx
@@ -8,23 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\GitHub\broken-morals\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30117BBD-AAB7-4522-974A-7B0914817466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10315F65-34DF-415C-8B6D-B1BF1399F46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dilemma 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Dilemma 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Dilemma 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Dilemma 4" sheetId="4" r:id="rId4"/>
-    <sheet name="Dilemma 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Aggregate" sheetId="6" r:id="rId1"/>
+    <sheet name="Dilemma 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Dilemma 2" sheetId="2" r:id="rId3"/>
+    <sheet name="Dilemma 3" sheetId="3" r:id="rId4"/>
+    <sheet name="Dilemma 4" sheetId="4" r:id="rId5"/>
+    <sheet name="Dilemma 5" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
   <si>
     <t>Timestamp</t>
   </si>
@@ -233,6 +247,18 @@
   </si>
   <si>
     <t>Morally, I find this story to be a huge conflict. Child labor seems inhumane and quite dangerous, especially in countries such as India who have no / very loose child labor laws. On the other hand, these third-world countries do not have the economic opportunities that the you would find in the western world. I think Ben should keep a more neutral tone, not attempting to influence JP or the parents. I mean, what is the alternative for these children? Starving? I don't think its Ben's place to influence either way, should he should say something simple "he's impressed with their work ethic", etc.</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -242,7 +268,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +292,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -333,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -345,6 +379,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,11 +681,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15DD815-87F2-4E99-899E-3DC40211E22D}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>AVERAGE('Dilemma 1'!D7, 'Dilemma 2'!D7, 'Dilemma 3'!D7, 'Dilemma 4'!D7, 'Dilemma 5'!D7)</f>
+        <v>4.3199999999999994</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE('Dilemma 1'!E7, 'Dilemma 2'!E7, 'Dilemma 3'!E7, 'Dilemma 4'!E7, 'Dilemma 5'!E7)</f>
+        <v>3.72</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE('Dilemma 1'!F7, 'Dilemma 2'!F7, 'Dilemma 3'!F7, 'Dilemma 4'!F7, 'Dilemma 5'!F7)</f>
+        <v>4.2</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE('Dilemma 1'!G7, 'Dilemma 2'!G7, 'Dilemma 3'!G7, 'Dilemma 4'!G7, 'Dilemma 5'!G7)</f>
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE('Dilemma 1'!H7, 'Dilemma 2'!H7, 'Dilemma 3'!H7, 'Dilemma 4'!H7, 'Dilemma 5'!H7)</f>
+        <v>3.04</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE('Dilemma 1'!I7, 'Dilemma 2'!I7, 'Dilemma 3'!I7, 'Dilemma 4'!I7, 'Dilemma 5'!I7)</f>
+        <v>2.12</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE('Dilemma 1'!J7, 'Dilemma 2'!J7, 'Dilemma 3'!J7, 'Dilemma 4'!J7, 'Dilemma 5'!J7)</f>
+        <v>2.3200000000000003</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE('Dilemma 1'!K7, 'Dilemma 2'!K7, 'Dilemma 3'!K7, 'Dilemma 4'!K7, 'Dilemma 5'!K7)</f>
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE('Dilemma 1'!L7, 'Dilemma 2'!L7, 'Dilemma 3'!L7, 'Dilemma 4'!L7, 'Dilemma 5'!L7)</f>
+        <v>2.2399999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:I2">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="3"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,6 +1015,44 @@
       </c>
       <c r="L6">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:L7" si="0">AVERAGE(D2:D6)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -915,12 +1082,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,259 +1323,42 @@
         <v>2</v>
       </c>
     </row>
-  </sheetData>
-  <conditionalFormatting sqref="D2:L6">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="3"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:L6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>45799.788366435183</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>45799.789693784733</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>45799.798116296297</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>45799.799531238423</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>45799.81540644676</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:L7" si="0">AVERAGE(D2:D6)</f>
+        <v>4</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>
@@ -1429,8 +1379,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:L6"/>
@@ -1446,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
@@ -1478,34 +1428,34 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45800.608595717589</v>
+        <v>45799.788366435183</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -1516,60 +1466,60 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45800.61705015046</v>
+        <v>45799.789693784733</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45800.617654293979</v>
+        <v>45799.798116296297</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1578,39 +1528,39 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45800.621749756952</v>
+        <v>45799.799531238423</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -1630,40 +1580,78 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45800.629346585651</v>
+        <v>45799.81540644676</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:L7" si="0">AVERAGE(D2:D6)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
@@ -1684,11 +1672,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,6 +1721,302 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
+        <v>45800.608595717589</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45800.61705015046</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45800.617654293979</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45800.621749756952</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45800.629346585651</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:L7" si="0">AVERAGE(D2:D6)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:L6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="3"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>45800.743016319437</v>
       </c>
       <c r="B2" t="s">
@@ -1919,6 +2203,44 @@
       </c>
       <c r="L6">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:L7" si="0">AVERAGE(D2:D6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
       </c>
     </row>
   </sheetData>
